--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ORACLE\SQL\ORACLE-SQL-2019-12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ORACLE\SQL\ORACLE-SQL-2020-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$25</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>NRO</t>
   </si>
@@ -56,53 +57,68 @@
     <t>Control de Asistencia</t>
   </si>
   <si>
-    <t>GUTIERREZ VENTURA CRISTIAN</t>
-  </si>
-  <si>
-    <t>OSORIO BRAVO DIEGO SEBASTIAN FERNANDO</t>
-  </si>
-  <si>
-    <t>PEÑA OLIVARES TRYCE STEPHANI</t>
-  </si>
-  <si>
-    <t>PIZARRO CCALLOCZA ELENA UBALDA</t>
-  </si>
-  <si>
-    <t>RIOS VEGA DANIEL SANTIAGO</t>
-  </si>
-  <si>
-    <t>ROMERO MAYTA JESSY SELENNE</t>
-  </si>
-  <si>
-    <t>SALINAS VEGA NILO FRANKLIN</t>
-  </si>
-  <si>
-    <t>SULLCARAY RIVERA DIEGO RUBEN VICENTE</t>
-  </si>
-  <si>
-    <t>ZEGARRA HIDALGO JUAN JOSE</t>
-  </si>
-  <si>
-    <t>[S2-ORCIN] INTRODUCCIÓN A SQL - ORACLE</t>
-  </si>
-  <si>
     <t>SA 08:00-14:00</t>
   </si>
   <si>
-    <t>07.DIC.2019</t>
+    <t>AYLAS ROMERO LUIS ALBERTO</t>
   </si>
   <si>
-    <t>14.DIC.2019</t>
+    <t>CASTRO CAMASCCA KEIKO SOFIA GUADALUPE</t>
   </si>
   <si>
-    <t>P</t>
+    <t>CAYLLAHUA NUÑEZ JOSE ANDRES</t>
+  </si>
+  <si>
+    <t>ELIAS PANTOJA ENRIQUE EDUARDO</t>
+  </si>
+  <si>
+    <t>GUEVARA BURGOS JAVIR HASSLER</t>
+  </si>
+  <si>
+    <t>LEDESMA ARANA CESAR ABRAHAM</t>
+  </si>
+  <si>
+    <t>MANSILLA MORALES JAIME</t>
+  </si>
+  <si>
+    <t>PASTOR GARCIA GIANCARLO JUNIOR</t>
+  </si>
+  <si>
+    <t>SALVADOR ZEVALLOS MARCO JUNIOR</t>
+  </si>
+  <si>
+    <t>SAMANIEGO LOPEZ CLINTON TEOBALDO</t>
+  </si>
+  <si>
+    <t>VALDEZ YRRIBARREN JOSDY YADIRA</t>
+  </si>
+  <si>
+    <t>VELAZCO SANDOVAL JULIO MARTIN</t>
+  </si>
+  <si>
+    <t>VIZCARRA ALVAREZ GRECIA STEFANY</t>
+  </si>
+  <si>
+    <t>[S5-ORCIN] INTRODUCCIÓN A SQL - ORACLE</t>
+  </si>
+  <si>
+    <t>15.FEB.2020</t>
+  </si>
+  <si>
+    <t>22.FEB.2020</t>
+  </si>
+  <si>
+    <t>29.FEB.2020</t>
+  </si>
+  <si>
+    <t>07.MAR.2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +183,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF868BA1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,12 +218,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE9ECEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -216,13 +258,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFDEE2E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE2E6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -257,22 +328,53 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -292,6 +394,362 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX59.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX60.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX61.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX62.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX63.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX64.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX65.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX66.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX67.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX68.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX69.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX70.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX71.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX72.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX73.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX74.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX75.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX76.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX77.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX78.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX79.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX80.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX81.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX82.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX83.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX84.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX85.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX86.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX87.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX88.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX89.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,6 +804,4194 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2051" name="Control 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2052" name="Control 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2052"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2053" name="Control 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2053"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2054" name="Control 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2054"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2055" name="Control 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2055"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2056" name="Control 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2056"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2057" name="Control 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2057"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2058" name="Control 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2058"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2059" name="Control 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2059"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2060" name="Control 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2060"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2061" name="Control 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2061"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2062" name="Control 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2062"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2063" name="Control 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2063"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2064" name="Control 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2064"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2065" name="Control 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2065"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2066" name="Control 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2066"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2067" name="Control 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2067"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2068" name="Control 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2068"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2069" name="Control 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2069"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2070" name="Control 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2070"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2071" name="Control 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2071"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2072" name="Control 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2072"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2073" name="Control 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2074" name="Control 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2074"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2075" name="Control 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2075"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2076" name="Control 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2076"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2077" name="Control 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2077"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2078" name="Control 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2078"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2079" name="Control 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2079"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2080" name="Control 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2080"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2081" name="Control 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2081"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2082" name="Control 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2082"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2083" name="Control 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2083"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2084" name="Control 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2084"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2085" name="Control 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2085"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2086" name="Control 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2086"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2087" name="Control 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2087"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2088" name="Control 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2088"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2089" name="Control 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2089"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2090" name="Control 42" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2090"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2091" name="Control 43" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2091"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2092" name="Control 44" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2092"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2093" name="Control 45" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2093"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2094" name="Control 46" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2094"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2095" name="Control 47" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2095"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2096" name="Control 48" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2096"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2097" name="Control 49" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2097"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2098" name="Control 50" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2098"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2099" name="Control 51" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2099"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2100" name="Control 52" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2100"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2101" name="Control 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2101"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2102" name="Control 54" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2102"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2103" name="Control 55" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2103"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2104" name="Control 56" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2104"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2105" name="Control 57" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2105"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2106" name="Control 58" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2106"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2107" name="Control 59" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2107"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2108" name="Control 60" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2108"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2109" name="Control 61" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2109"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2110" name="Control 62" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2110"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2111" name="Control 63" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2111"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2112" name="Control 64" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2112"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2113" name="Control 65" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2113"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2114" name="Control 66" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2114"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2115" name="Control 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2115"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2116" name="Control 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2116"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2117" name="Control 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2117"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2118" name="Control 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2118"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2119" name="Control 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2119"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2120" name="Control 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2120"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2121" name="Control 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2121"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2122" name="Control 74" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2122"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2123" name="Control 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2123"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2124" name="Control 76" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2124"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2125" name="Control 77" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2125"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2126" name="Control 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2126"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2127" name="Control 79" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2127"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2128" name="Control 80" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2128"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2129" name="Control 81" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2129"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2130" name="Control 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2130"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2131" name="Control 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2131"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2132" name="Control 84" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2132"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2133" name="Control 85" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2133"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2134" name="Control 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2134"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2135" name="Control 87" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2135"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2136" name="Control 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2136"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>121920</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>228600</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2137" name="Control 89" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2137"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -617,14 +5263,14 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.33203125" customWidth="1"/>
   </cols>
@@ -632,57 +5278,59 @@
     <row r="1" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="A3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="28" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="13">
-        <v>201912</v>
-      </c>
-      <c r="D7" s="14">
-        <v>43806</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="12" t="s">
-        <v>19</v>
+      <c r="B7" s="23"/>
+      <c r="C7" s="25">
+        <v>202002</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -699,27 +5347,27 @@
         <v>1</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+        <v>25</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
@@ -728,14 +5376,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
@@ -744,14 +5388,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
@@ -760,14 +5400,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
@@ -776,14 +5412,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
@@ -792,14 +5424,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
@@ -808,14 +5436,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
@@ -824,14 +5448,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
@@ -840,14 +5460,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
@@ -855,7 +5471,9 @@
       <c r="A19" s="2">
         <v>10</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -865,7 +5483,9 @@
       <c r="A20" s="4">
         <v>11</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -875,7 +5495,9 @@
       <c r="A21" s="2">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -885,7 +5507,9 @@
       <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -902,4 +5526,2536 @@
   <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:B30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
+    </row>
+    <row r="7" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+    <hyperlink ref="B6" r:id="rId5" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+    <hyperlink ref="B7" r:id="rId6" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+    <hyperlink ref="B8" r:id="rId7" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+    <hyperlink ref="B9" r:id="rId8" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+    <hyperlink ref="B10" r:id="rId9" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+    <hyperlink ref="B11" r:id="rId10" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+    <hyperlink ref="B12" r:id="rId11" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+    <hyperlink ref="B13" r:id="rId12" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+    <hyperlink ref="B14" r:id="rId13" display="http://www.sistemasuni.edu.pe/WebProfesor/Cursos/ActaNotas?CicCod=202002&amp;CurSec=S5&amp;CurCod=ORCIN&amp;Anno=2020"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
+  <drawing r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2137" r:id="rId17" name="Control 89">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2137" r:id="rId17" name="Control 89"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2136" r:id="rId19" name="Control 88">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2136" r:id="rId19" name="Control 88"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2135" r:id="rId20" name="Control 87">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2135" r:id="rId20" name="Control 87"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2134" r:id="rId21" name="Control 86">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2134" r:id="rId21" name="Control 86"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2133" r:id="rId22" name="Control 85">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2133" r:id="rId22" name="Control 85"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2132" r:id="rId23" name="Control 84">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2132" r:id="rId23" name="Control 84"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2131" r:id="rId24" name="Control 83">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2131" r:id="rId24" name="Control 83"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2130" r:id="rId25" name="Control 82">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2130" r:id="rId25" name="Control 82"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2129" r:id="rId26" name="Control 81">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2129" r:id="rId26" name="Control 81"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2128" r:id="rId27" name="Control 80">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2128" r:id="rId27" name="Control 80"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2127" r:id="rId28" name="Control 79">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2127" r:id="rId28" name="Control 79"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2126" r:id="rId29" name="Control 78">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2126" r:id="rId29" name="Control 78"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2125" r:id="rId30" name="Control 77">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2125" r:id="rId30" name="Control 77"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2124" r:id="rId31" name="Control 76">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2124" r:id="rId31" name="Control 76"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2123" r:id="rId32" name="Control 75">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2123" r:id="rId32" name="Control 75"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2122" r:id="rId33" name="Control 74">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2122" r:id="rId33" name="Control 74"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2121" r:id="rId34" name="Control 73">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2121" r:id="rId34" name="Control 73"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2120" r:id="rId35" name="Control 72">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2120" r:id="rId35" name="Control 72"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2119" r:id="rId36" name="Control 71">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2119" r:id="rId36" name="Control 71"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2118" r:id="rId37" name="Control 70">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2118" r:id="rId37" name="Control 70"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2117" r:id="rId38" name="Control 69">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2117" r:id="rId38" name="Control 69"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2116" r:id="rId39" name="Control 68">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2116" r:id="rId39" name="Control 68"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2115" r:id="rId40" name="Control 67">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2115" r:id="rId40" name="Control 67"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2114" r:id="rId41" name="Control 66">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2114" r:id="rId41" name="Control 66"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2113" r:id="rId42" name="Control 65">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2113" r:id="rId42" name="Control 65"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2112" r:id="rId43" name="Control 64">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2112" r:id="rId43" name="Control 64"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2111" r:id="rId44" name="Control 63">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2111" r:id="rId44" name="Control 63"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2110" r:id="rId45" name="Control 62">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2110" r:id="rId45" name="Control 62"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2109" r:id="rId46" name="Control 61">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2109" r:id="rId46" name="Control 61"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2108" r:id="rId47" name="Control 60">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2108" r:id="rId47" name="Control 60"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2107" r:id="rId48" name="Control 59">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2107" r:id="rId48" name="Control 59"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2106" r:id="rId49" name="Control 58">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2106" r:id="rId49" name="Control 58"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2105" r:id="rId50" name="Control 57">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2105" r:id="rId50" name="Control 57"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2104" r:id="rId51" name="Control 56">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2104" r:id="rId51" name="Control 56"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2103" r:id="rId52" name="Control 55">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2103" r:id="rId52" name="Control 55"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2102" r:id="rId53" name="Control 54">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2102" r:id="rId53" name="Control 54"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2101" r:id="rId54" name="Control 53">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2101" r:id="rId54" name="Control 53"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2100" r:id="rId55" name="Control 52">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2100" r:id="rId55" name="Control 52"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2099" r:id="rId56" name="Control 51">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2099" r:id="rId56" name="Control 51"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2098" r:id="rId57" name="Control 50">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2098" r:id="rId57" name="Control 50"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2097" r:id="rId58" name="Control 49">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2097" r:id="rId58" name="Control 49"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2096" r:id="rId59" name="Control 48">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2096" r:id="rId59" name="Control 48"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2095" r:id="rId60" name="Control 47">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2095" r:id="rId60" name="Control 47"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2094" r:id="rId61" name="Control 46">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2094" r:id="rId61" name="Control 46"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2093" r:id="rId62" name="Control 45">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2093" r:id="rId62" name="Control 45"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2092" r:id="rId63" name="Control 44">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2092" r:id="rId63" name="Control 44"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2091" r:id="rId64" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2091" r:id="rId64" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2090" r:id="rId65" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2090" r:id="rId65" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2089" r:id="rId66" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2089" r:id="rId66" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2088" r:id="rId67" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2088" r:id="rId67" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2087" r:id="rId68" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2087" r:id="rId68" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2086" r:id="rId69" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2086" r:id="rId69" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2085" r:id="rId70" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2085" r:id="rId70" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2084" r:id="rId71" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2084" r:id="rId71" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2083" r:id="rId72" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2083" r:id="rId72" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2082" r:id="rId73" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2082" r:id="rId73" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2081" r:id="rId74" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2081" r:id="rId74" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2080" r:id="rId75" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2080" r:id="rId75" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2079" r:id="rId76" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2079" r:id="rId76" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2078" r:id="rId77" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2078" r:id="rId77" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2077" r:id="rId78" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2077" r:id="rId78" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2076" r:id="rId79" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2076" r:id="rId79" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2075" r:id="rId80" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2075" r:id="rId80" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2074" r:id="rId81" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2074" r:id="rId81" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2073" r:id="rId82" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2073" r:id="rId82" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2072" r:id="rId83" name="Control 24">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2072" r:id="rId83" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2071" r:id="rId84" name="Control 23">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2071" r:id="rId84" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2070" r:id="rId85" name="Control 22">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2070" r:id="rId85" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2069" r:id="rId86" name="Control 21">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2069" r:id="rId86" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2068" r:id="rId87" name="Control 20">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2068" r:id="rId87" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2067" r:id="rId88" name="Control 19">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2067" r:id="rId88" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2066" r:id="rId89" name="Control 18">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2066" r:id="rId89" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2065" r:id="rId90" name="Control 17">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2065" r:id="rId90" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2064" r:id="rId91" name="Control 16">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2064" r:id="rId91" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2063" r:id="rId92" name="Control 15">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2063" r:id="rId92" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2062" r:id="rId93" name="Control 14">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2062" r:id="rId93" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2061" r:id="rId94" name="Control 13">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2061" r:id="rId94" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2060" r:id="rId95" name="Control 12">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2060" r:id="rId95" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2059" r:id="rId96" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2059" r:id="rId96" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2058" r:id="rId97" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2058" r:id="rId97" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2057" r:id="rId98" name="Control 9">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2057" r:id="rId98" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2056" r:id="rId99" name="Control 8">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2056" r:id="rId99" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2055" r:id="rId100" name="Control 7">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2055" r:id="rId100" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2054" r:id="rId101" name="Control 6">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2054" r:id="rId101" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2053" r:id="rId102" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2053" r:id="rId102" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2052" r:id="rId103" name="Control 4">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2052" r:id="rId103" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2051" r:id="rId104" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2051" r:id="rId104" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2050" r:id="rId105" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2050" r:id="rId105" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="2049" r:id="rId106" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId18">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>121920</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>228600</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="2049" r:id="rId106" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
+</worksheet>
 </file>
--- a/Asistencia.xlsx
+++ b/Asistencia.xlsx
@@ -15,7 +15,7 @@
     <sheet name="ASISTENCIA" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ASISTENCIA!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="36">
   <si>
     <t>NRO</t>
   </si>
@@ -95,9 +95,6 @@
     <t>VELAZCO SANDOVAL JULIO MARTIN</t>
   </si>
   <si>
-    <t>VIZCARRA ALVAREZ GRECIA STEFANY</t>
-  </si>
-  <si>
     <t>[S5-ORCIN] INTRODUCCIÓN A SQL - ORACLE</t>
   </si>
   <si>
@@ -111,6 +108,33 @@
   </si>
   <si>
     <t>07.MAR.2020</t>
+  </si>
+  <si>
+    <t>MORAN SARAVIA JOSE MARIA</t>
+  </si>
+  <si>
+    <t>PONTE DE OSAMBELA ROSEMARY</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>COLLAZOS MENDOZA OSIEL ANTONY</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>VIZCARRA ALVARES GRECIA STEFANY</t>
+  </si>
+  <si>
+    <t>MARIN MANCILLA CRISTIAN</t>
+  </si>
+  <si>
+    <t>ASISTENTES</t>
+  </si>
+  <si>
+    <t>AUSENTES</t>
   </si>
 </sst>
 </file>
@@ -205,13 +229,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +269,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,35 +298,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -644,10 +674,10 @@
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,58 +690,58 @@
   <sheetData>
     <row r="1" spans="1:6" ht="94.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="16"/>
+      <c r="C6" s="11">
+        <v>202002</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="13">
-        <v>202002</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="12" t="s">
+      <c r="E6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -722,187 +752,383 @@
       <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>6</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>7</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>7</v>
-      </c>
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>8</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>9</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>13</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
+    <row r="22" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>14</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>15</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>16</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>17</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19">
+        <f>COUNTIF(C9:C25,"P")</f>
+        <v>16</v>
+      </c>
+      <c r="D26" s="19">
+        <f t="shared" ref="D26:F26" si="0">COUNTIF(D9:D25,"P")</f>
+        <v>15</v>
+      </c>
+      <c r="E26" s="19">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F26" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19">
+        <f>COUNTIF(C9:C25,"F")</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="19">
+        <f t="shared" ref="D27:F27" si="1">COUNTIF(D9:D25,"F")</f>
+        <v>2</v>
+      </c>
+      <c r="E27" s="19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
